--- a/StructureDefinition-ReportOfIllTraveler.xlsx
+++ b/StructureDefinition-ReportOfIllTraveler.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$87</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3271" uniqueCount="443">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-28T09:30:35-05:00</t>
+    <t>2023-11-28T21:37:28-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1288,6 +1288,110 @@
   </si>
   <si>
     <t>.component.section</t>
+  </si>
+  <si>
+    <t>Composition.section:flightItinerary</t>
+  </si>
+  <si>
+    <t>flightItinerary</t>
+  </si>
+  <si>
+    <t>Composition.section:flightItinerary.id</t>
+  </si>
+  <si>
+    <t>Composition.section:flightItinerary.extension</t>
+  </si>
+  <si>
+    <t>Composition.section:flightItinerary.modifierExtension</t>
+  </si>
+  <si>
+    <t>Composition.section:flightItinerary.title</t>
+  </si>
+  <si>
+    <t>Flight details for the ill Traveler</t>
+  </si>
+  <si>
+    <t>Composition.section:flightItinerary.code</t>
+  </si>
+  <si>
+    <t>Composition.section:flightItinerary.author</t>
+  </si>
+  <si>
+    <t>Composition.section:flightItinerary.focus</t>
+  </si>
+  <si>
+    <t>Composition.section:flightItinerary.text</t>
+  </si>
+  <si>
+    <t>Composition.section:flightItinerary.mode</t>
+  </si>
+  <si>
+    <t>Composition.section:flightItinerary.orderedBy</t>
+  </si>
+  <si>
+    <t>Composition.section:flightItinerary.entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://example.org/StructureDefinition/FlightItinerary)
+</t>
+  </si>
+  <si>
+    <t>Composition.section:flightItinerary.emptyReason</t>
+  </si>
+  <si>
+    <t>Composition.section:flightItinerary.section</t>
+  </si>
+  <si>
+    <t>Composition.section:infectiousDisease</t>
+  </si>
+  <si>
+    <t>infectiousDisease</t>
+  </si>
+  <si>
+    <t>Composition.section:infectiousDisease.id</t>
+  </si>
+  <si>
+    <t>Composition.section:infectiousDisease.extension</t>
+  </si>
+  <si>
+    <t>Composition.section:infectiousDisease.modifierExtension</t>
+  </si>
+  <si>
+    <t>Composition.section:infectiousDisease.title</t>
+  </si>
+  <si>
+    <t>Information about the Infectious Disease, including labs and x-rays</t>
+  </si>
+  <si>
+    <t>Composition.section:infectiousDisease.code</t>
+  </si>
+  <si>
+    <t>Composition.section:infectiousDisease.author</t>
+  </si>
+  <si>
+    <t>Composition.section:infectiousDisease.focus</t>
+  </si>
+  <si>
+    <t>Composition.section:infectiousDisease.text</t>
+  </si>
+  <si>
+    <t>Composition.section:infectiousDisease.mode</t>
+  </si>
+  <si>
+    <t>Composition.section:infectiousDisease.orderedBy</t>
+  </si>
+  <si>
+    <t>Composition.section:infectiousDisease.entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://example.org/StructureDefinition/InfectiousDisease)
+</t>
+  </si>
+  <si>
+    <t>Composition.section:infectiousDisease.emptyReason</t>
+  </si>
+  <si>
+    <t>Composition.section:infectiousDisease.section</t>
   </si>
 </sst>
 </file>
@@ -1597,7 +1701,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO59"/>
+  <dimension ref="A1:AO87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1606,7 +1710,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.0859375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.41796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="20.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
@@ -6938,7 +7042,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>34</v>
@@ -6995,16 +7099,14 @@
         <v>34</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>34</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="AC46" s="2"/>
       <c r="AD46" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>337</v>
@@ -8479,7 +8581,7 @@
         <v>34</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>405</v>
@@ -8568,8 +8670,3304 @@
         <v>34</v>
       </c>
     </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="D60" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="P72" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="D74" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="P77" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="P78" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AO59">
+  <autoFilter ref="A1:AO87">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8579,7 +11977,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI58">
+  <conditionalFormatting sqref="A2:AI86">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-ReportOfIllTraveler.xlsx
+++ b/StructureDefinition-ReportOfIllTraveler.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3271" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3271" uniqueCount="444">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/ReportOfIllTraveler</t>
+    <t>http://hl7.org/fhir/us/reportofilltraveler/StructureDefinition/ReportOfIllTraveler</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-28T21:37:28-05:00</t>
+    <t>2023-12-05T13:08:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -335,7 +335,7 @@
     <t>qstation-transfer-date</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/transfer-date}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/reportofilltraveler/StructureDefinition/transfer-date}
 </t>
   </si>
   <si>
@@ -355,7 +355,7 @@
     <t>qstation-name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/qstation-name}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/reportofilltraveler/StructureDefinition/qstation-name}
 </t>
   </si>
   <si>
@@ -430,6 +430,9 @@
   </si>
   <si>
     <t>Need to be able to mark interim, amended, or withdrawn compositions or documents.</t>
+  </si>
+  <si>
+    <t>final</t>
   </si>
   <si>
     <t>required</t>
@@ -478,6 +481,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;code value="55751-2"/&gt;
+    &lt;display value="Public health Case report"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1332,7 +1336,7 @@
     <t>Composition.section:flightItinerary.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.org/StructureDefinition/FlightItinerary)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/reportofilltraveler/StructureDefinition/FlightItinerary)
 </t>
   </si>
   <si>
@@ -1384,7 +1388,7 @@
     <t>Composition.section:infectiousDisease.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.org/StructureDefinition/InfectiousDisease)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/reportofilltraveler/StructureDefinition/InfectiousDisease)
 </t>
   </si>
   <si>
@@ -1719,7 +1723,7 @@
     <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.44140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.0859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2467,7 +2471,7 @@
         <v>35</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>34</v>
@@ -3201,7 +3205,7 @@
         <v>34</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="T13" t="s" s="2">
         <v>34</v>
@@ -3216,13 +3220,13 @@
         <v>34</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>34</v>
@@ -3255,27 +3259,27 @@
         <v>59</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3298,19 +3302,19 @@
         <v>48</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>34</v>
@@ -3320,7 +3324,7 @@
         <v>34</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>34</v>
@@ -3338,10 +3342,10 @@
         <v>71</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>34</v>
@@ -3359,7 +3363,7 @@
         <v>34</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>47</v>
@@ -3374,27 +3378,27 @@
         <v>59</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3417,19 +3421,19 @@
         <v>48</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>34</v>
@@ -3454,13 +3458,13 @@
         <v>34</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>34</v>
@@ -3478,7 +3482,7 @@
         <v>34</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>35</v>
@@ -3493,27 +3497,27 @@
         <v>59</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3536,19 +3540,19 @@
         <v>48</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>34</v>
@@ -3597,7 +3601,7 @@
         <v>34</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>35</v>
@@ -3615,24 +3619,24 @@
         <v>34</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3655,17 +3659,17 @@
         <v>48</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>34</v>
@@ -3714,7 +3718,7 @@
         <v>34</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>35</v>
@@ -3729,27 +3733,27 @@
         <v>59</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3772,19 +3776,19 @@
         <v>48</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>34</v>
@@ -3833,7 +3837,7 @@
         <v>34</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>47</v>
@@ -3848,27 +3852,27 @@
         <v>59</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3891,17 +3895,17 @@
         <v>48</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>34</v>
@@ -3938,7 +3942,7 @@
         <v>34</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
@@ -3948,7 +3952,7 @@
         <v>96</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>47</v>
@@ -3963,30 +3967,30 @@
         <v>59</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>34</v>
@@ -4008,17 +4012,17 @@
         <v>48</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>34</v>
@@ -4067,7 +4071,7 @@
         <v>34</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>47</v>
@@ -4082,30 +4086,30 @@
         <v>59</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>34</v>
@@ -4127,17 +4131,17 @@
         <v>48</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>34</v>
@@ -4186,7 +4190,7 @@
         <v>34</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>47</v>
@@ -4201,30 +4205,30 @@
         <v>59</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>34</v>
@@ -4246,17 +4250,17 @@
         <v>48</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>34</v>
@@ -4305,7 +4309,7 @@
         <v>34</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>47</v>
@@ -4320,27 +4324,27 @@
         <v>59</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4363,16 +4367,16 @@
         <v>48</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4383,7 +4387,7 @@
         <v>34</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>34</v>
@@ -4422,7 +4426,7 @@
         <v>34</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>47</v>
@@ -4440,13 +4444,13 @@
         <v>34</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>34</v>
@@ -4454,10 +4458,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4483,13 +4487,13 @@
         <v>67</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4515,13 +4519,13 @@
         <v>34</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>34</v>
@@ -4539,7 +4543,7 @@
         <v>34</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>35</v>
@@ -4557,13 +4561,13 @@
         <v>34</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>34</v>
@@ -4571,10 +4575,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4597,19 +4601,19 @@
         <v>34</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>34</v>
@@ -4658,7 +4662,7 @@
         <v>34</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>35</v>
@@ -4676,13 +4680,13 @@
         <v>34</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>34</v>
@@ -4690,10 +4694,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4716,13 +4720,13 @@
         <v>34</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4773,7 +4777,7 @@
         <v>34</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>35</v>
@@ -4791,7 +4795,7 @@
         <v>34</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>34</v>
@@ -4805,10 +4809,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4834,10 +4838,10 @@
         <v>92</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N27" t="s" s="2">
         <v>113</v>
@@ -4890,7 +4894,7 @@
         <v>34</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>35</v>
@@ -4908,7 +4912,7 @@
         <v>34</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>34</v>
@@ -4922,14 +4926,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4951,10 +4955,10 @@
         <v>92</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N28" t="s" s="2">
         <v>113</v>
@@ -5009,7 +5013,7 @@
         <v>34</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>35</v>
@@ -5041,10 +5045,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5070,14 +5074,14 @@
         <v>67</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>34</v>
@@ -5102,13 +5106,13 @@
         <v>34</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>34</v>
@@ -5126,7 +5130,7 @@
         <v>34</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>47</v>
@@ -5144,10 +5148,10 @@
         <v>34</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>34</v>
@@ -5158,10 +5162,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5184,17 +5188,17 @@
         <v>34</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>34</v>
@@ -5243,7 +5247,7 @@
         <v>34</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>35</v>
@@ -5261,10 +5265,10 @@
         <v>34</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>34</v>
@@ -5275,10 +5279,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5301,17 +5305,17 @@
         <v>34</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>34</v>
@@ -5360,7 +5364,7 @@
         <v>34</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>35</v>
@@ -5378,24 +5382,24 @@
         <v>34</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5418,19 +5422,19 @@
         <v>48</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>34</v>
@@ -5479,7 +5483,7 @@
         <v>34</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>35</v>
@@ -5497,13 +5501,13 @@
         <v>34</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>34</v>
@@ -5511,10 +5515,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5525,7 +5529,7 @@
         <v>35</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>34</v>
@@ -5537,16 +5541,16 @@
         <v>34</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5596,7 +5600,7 @@
         <v>34</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>35</v>
@@ -5614,13 +5618,13 @@
         <v>34</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>34</v>
@@ -5628,10 +5632,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5654,13 +5658,13 @@
         <v>34</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5711,7 +5715,7 @@
         <v>34</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>35</v>
@@ -5729,7 +5733,7 @@
         <v>34</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>34</v>
@@ -5743,10 +5747,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5772,10 +5776,10 @@
         <v>92</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>113</v>
@@ -5828,7 +5832,7 @@
         <v>34</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>35</v>
@@ -5846,7 +5850,7 @@
         <v>34</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>34</v>
@@ -5860,14 +5864,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5889,10 +5893,10 @@
         <v>92</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>113</v>
@@ -5947,7 +5951,7 @@
         <v>34</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>35</v>
@@ -5979,10 +5983,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6008,13 +6012,13 @@
         <v>67</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6040,13 +6044,13 @@
         <v>34</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>34</v>
@@ -6064,7 +6068,7 @@
         <v>34</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>47</v>
@@ -6082,13 +6086,13 @@
         <v>34</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>34</v>
@@ -6096,10 +6100,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6122,13 +6126,13 @@
         <v>34</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6179,7 +6183,7 @@
         <v>34</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>47</v>
@@ -6197,13 +6201,13 @@
         <v>34</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>34</v>
@@ -6211,10 +6215,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6225,7 +6229,7 @@
         <v>35</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>34</v>
@@ -6237,19 +6241,19 @@
         <v>48</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>34</v>
@@ -6298,7 +6302,7 @@
         <v>34</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>35</v>
@@ -6316,13 +6320,13 @@
         <v>34</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>34</v>
@@ -6330,10 +6334,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6356,13 +6360,13 @@
         <v>34</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6413,7 +6417,7 @@
         <v>34</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>35</v>
@@ -6431,7 +6435,7 @@
         <v>34</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>34</v>
@@ -6445,10 +6449,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6474,10 +6478,10 @@
         <v>92</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>113</v>
@@ -6530,7 +6534,7 @@
         <v>34</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>35</v>
@@ -6548,7 +6552,7 @@
         <v>34</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>34</v>
@@ -6562,14 +6566,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6591,10 +6595,10 @@
         <v>92</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>113</v>
@@ -6649,7 +6653,7 @@
         <v>34</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>35</v>
@@ -6681,10 +6685,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6707,16 +6711,16 @@
         <v>48</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6742,13 +6746,13 @@
         <v>34</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>34</v>
@@ -6766,7 +6770,7 @@
         <v>34</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>35</v>
@@ -6784,13 +6788,13 @@
         <v>34</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>34</v>
@@ -6798,10 +6802,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6824,13 +6828,13 @@
         <v>48</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6881,7 +6885,7 @@
         <v>34</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
@@ -6899,13 +6903,13 @@
         <v>34</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>34</v>
@@ -6913,10 +6917,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6939,13 +6943,13 @@
         <v>48</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6996,7 +7000,7 @@
         <v>34</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>35</v>
@@ -7014,10 +7018,10 @@
         <v>34</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>34</v>
@@ -7028,10 +7032,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7042,7 +7046,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>34</v>
@@ -7054,13 +7058,13 @@
         <v>34</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7099,7 +7103,7 @@
         <v>34</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s" s="2">
@@ -7109,7 +7113,7 @@
         <v>96</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>35</v>
@@ -7121,16 +7125,16 @@
         <v>34</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>34</v>
@@ -7141,10 +7145,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7167,13 +7171,13 @@
         <v>34</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7224,7 +7228,7 @@
         <v>34</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>35</v>
@@ -7242,7 +7246,7 @@
         <v>34</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>34</v>
@@ -7256,10 +7260,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7285,10 +7289,10 @@
         <v>92</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>113</v>
@@ -7341,7 +7345,7 @@
         <v>34</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>35</v>
@@ -7359,7 +7363,7 @@
         <v>34</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>34</v>
@@ -7373,14 +7377,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7402,10 +7406,10 @@
         <v>92</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>113</v>
@@ -7460,7 +7464,7 @@
         <v>34</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
@@ -7492,14 +7496,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7518,19 +7522,19 @@
         <v>34</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>34</v>
@@ -7579,7 +7583,7 @@
         <v>34</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>35</v>
@@ -7597,10 +7601,10 @@
         <v>34</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>34</v>
@@ -7611,10 +7615,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7637,19 +7641,19 @@
         <v>34</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>34</v>
@@ -7674,13 +7678,13 @@
         <v>34</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>34</v>
@@ -7698,7 +7702,7 @@
         <v>34</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
@@ -7716,10 +7720,10 @@
         <v>34</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>34</v>
@@ -7730,10 +7734,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7756,17 +7760,17 @@
         <v>34</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>34</v>
@@ -7815,7 +7819,7 @@
         <v>34</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>35</v>
@@ -7833,24 +7837,24 @@
         <v>34</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7873,16 +7877,16 @@
         <v>34</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7932,7 +7936,7 @@
         <v>34</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>35</v>
@@ -7953,7 +7957,7 @@
         <v>34</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>34</v>
@@ -7964,10 +7968,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7993,13 +7997,13 @@
         <v>77</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8049,7 +8053,7 @@
         <v>34</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>35</v>
@@ -8058,7 +8062,7 @@
         <v>47</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>59</v>
@@ -8067,10 +8071,10 @@
         <v>34</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>34</v>
@@ -8081,10 +8085,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8110,16 +8114,16 @@
         <v>67</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>34</v>
@@ -8144,13 +8148,13 @@
         <v>34</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>34</v>
@@ -8168,7 +8172,7 @@
         <v>34</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>35</v>
@@ -8186,24 +8190,24 @@
         <v>34</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8226,19 +8230,19 @@
         <v>34</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>34</v>
@@ -8266,10 +8270,10 @@
         <v>71</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>34</v>
@@ -8287,7 +8291,7 @@
         <v>34</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
@@ -8305,10 +8309,10 @@
         <v>34</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>34</v>
@@ -8319,10 +8323,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8345,16 +8349,16 @@
         <v>34</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8404,7 +8408,7 @@
         <v>34</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>35</v>
@@ -8413,7 +8417,7 @@
         <v>36</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>59</v>
@@ -8422,10 +8426,10 @@
         <v>34</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>34</v>
@@ -8436,10 +8440,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8462,19 +8466,19 @@
         <v>34</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>34</v>
@@ -8502,10 +8506,10 @@
         <v>71</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>34</v>
@@ -8523,7 +8527,7 @@
         <v>34</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>35</v>
@@ -8532,7 +8536,7 @@
         <v>47</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>59</v>
@@ -8541,10 +8545,10 @@
         <v>34</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>34</v>
@@ -8555,10 +8559,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8584,13 +8588,13 @@
         <v>37</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8640,7 +8644,7 @@
         <v>34</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>35</v>
@@ -8649,7 +8653,7 @@
         <v>36</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>59</v>
@@ -8658,10 +8662,10 @@
         <v>34</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>34</v>
@@ -8672,13 +8676,13 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>34</v>
@@ -8700,13 +8704,13 @@
         <v>34</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8757,7 +8761,7 @@
         <v>34</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
@@ -8769,16 +8773,16 @@
         <v>34</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>34</v>
@@ -8789,10 +8793,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8815,13 +8819,13 @@
         <v>34</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8872,7 +8876,7 @@
         <v>34</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
@@ -8890,7 +8894,7 @@
         <v>34</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>34</v>
@@ -8904,10 +8908,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8933,10 +8937,10 @@
         <v>92</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>113</v>
@@ -8989,7 +8993,7 @@
         <v>34</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>35</v>
@@ -9007,7 +9011,7 @@
         <v>34</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>34</v>
@@ -9021,14 +9025,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9050,10 +9054,10 @@
         <v>92</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>113</v>
@@ -9108,7 +9112,7 @@
         <v>34</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>35</v>
@@ -9140,14 +9144,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9166,19 +9170,19 @@
         <v>34</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>34</v>
@@ -9188,7 +9192,7 @@
         <v>34</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>34</v>
@@ -9227,7 +9231,7 @@
         <v>34</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>35</v>
@@ -9245,10 +9249,10 @@
         <v>34</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>34</v>
@@ -9259,10 +9263,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9285,19 +9289,19 @@
         <v>34</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>34</v>
@@ -9322,13 +9326,13 @@
         <v>34</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>34</v>
@@ -9346,7 +9350,7 @@
         <v>34</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>35</v>
@@ -9364,10 +9368,10 @@
         <v>34</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>34</v>
@@ -9378,10 +9382,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9404,17 +9408,17 @@
         <v>34</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>34</v>
@@ -9463,7 +9467,7 @@
         <v>34</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>35</v>
@@ -9481,24 +9485,24 @@
         <v>34</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9521,16 +9525,16 @@
         <v>34</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9580,7 +9584,7 @@
         <v>34</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>35</v>
@@ -9601,7 +9605,7 @@
         <v>34</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>34</v>
@@ -9612,10 +9616,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9641,13 +9645,13 @@
         <v>77</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9697,7 +9701,7 @@
         <v>34</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>35</v>
@@ -9706,7 +9710,7 @@
         <v>47</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>59</v>
@@ -9715,10 +9719,10 @@
         <v>34</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>34</v>
@@ -9729,10 +9733,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9758,16 +9762,16 @@
         <v>67</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>34</v>
@@ -9792,13 +9796,13 @@
         <v>34</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>34</v>
@@ -9816,7 +9820,7 @@
         <v>34</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>35</v>
@@ -9834,24 +9838,24 @@
         <v>34</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9874,19 +9878,19 @@
         <v>34</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>34</v>
@@ -9914,10 +9918,10 @@
         <v>71</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>34</v>
@@ -9935,7 +9939,7 @@
         <v>34</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>35</v>
@@ -9953,10 +9957,10 @@
         <v>34</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>34</v>
@@ -9967,10 +9971,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9993,16 +9997,16 @@
         <v>34</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10052,7 +10056,7 @@
         <v>34</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>35</v>
@@ -10061,7 +10065,7 @@
         <v>36</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>59</v>
@@ -10070,10 +10074,10 @@
         <v>34</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>34</v>
@@ -10084,10 +10088,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10110,19 +10114,19 @@
         <v>34</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>34</v>
@@ -10150,10 +10154,10 @@
         <v>71</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>34</v>
@@ -10171,7 +10175,7 @@
         <v>34</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>35</v>
@@ -10180,7 +10184,7 @@
         <v>47</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>59</v>
@@ -10189,10 +10193,10 @@
         <v>34</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>34</v>
@@ -10203,10 +10207,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10232,13 +10236,13 @@
         <v>37</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10288,7 +10292,7 @@
         <v>34</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>35</v>
@@ -10297,7 +10301,7 @@
         <v>36</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>59</v>
@@ -10306,10 +10310,10 @@
         <v>34</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>34</v>
@@ -10320,13 +10324,13 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>34</v>
@@ -10348,13 +10352,13 @@
         <v>34</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10405,7 +10409,7 @@
         <v>34</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>35</v>
@@ -10417,16 +10421,16 @@
         <v>34</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>34</v>
@@ -10437,10 +10441,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10463,13 +10467,13 @@
         <v>34</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10520,7 +10524,7 @@
         <v>34</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>35</v>
@@ -10538,7 +10542,7 @@
         <v>34</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>34</v>
@@ -10552,10 +10556,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10581,10 +10585,10 @@
         <v>92</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>113</v>
@@ -10637,7 +10641,7 @@
         <v>34</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>35</v>
@@ -10655,7 +10659,7 @@
         <v>34</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>34</v>
@@ -10669,14 +10673,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -10698,10 +10702,10 @@
         <v>92</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N77" t="s" s="2">
         <v>113</v>
@@ -10756,7 +10760,7 @@
         <v>34</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>35</v>
@@ -10788,14 +10792,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -10814,19 +10818,19 @@
         <v>34</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>34</v>
@@ -10836,7 +10840,7 @@
         <v>34</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>34</v>
@@ -10875,7 +10879,7 @@
         <v>34</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>35</v>
@@ -10893,10 +10897,10 @@
         <v>34</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>34</v>
@@ -10907,10 +10911,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10933,19 +10937,19 @@
         <v>34</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>34</v>
@@ -10970,13 +10974,13 @@
         <v>34</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>34</v>
@@ -10994,7 +10998,7 @@
         <v>34</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>35</v>
@@ -11012,10 +11016,10 @@
         <v>34</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>34</v>
@@ -11026,10 +11030,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11052,17 +11056,17 @@
         <v>34</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>34</v>
@@ -11111,7 +11115,7 @@
         <v>34</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>35</v>
@@ -11129,24 +11133,24 @@
         <v>34</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11169,16 +11173,16 @@
         <v>34</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11228,7 +11232,7 @@
         <v>34</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>35</v>
@@ -11249,7 +11253,7 @@
         <v>34</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>34</v>
@@ -11260,10 +11264,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11289,13 +11293,13 @@
         <v>77</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11345,7 +11349,7 @@
         <v>34</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>35</v>
@@ -11354,7 +11358,7 @@
         <v>47</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>59</v>
@@ -11363,10 +11367,10 @@
         <v>34</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>34</v>
@@ -11377,10 +11381,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11406,16 +11410,16 @@
         <v>67</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>34</v>
@@ -11440,13 +11444,13 @@
         <v>34</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>34</v>
@@ -11464,7 +11468,7 @@
         <v>34</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>35</v>
@@ -11482,24 +11486,24 @@
         <v>34</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11522,19 +11526,19 @@
         <v>34</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>34</v>
@@ -11562,10 +11566,10 @@
         <v>71</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>34</v>
@@ -11583,7 +11587,7 @@
         <v>34</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>35</v>
@@ -11601,10 +11605,10 @@
         <v>34</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>34</v>
@@ -11615,10 +11619,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11641,16 +11645,16 @@
         <v>34</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -11700,7 +11704,7 @@
         <v>34</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>35</v>
@@ -11709,7 +11713,7 @@
         <v>36</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>59</v>
@@ -11718,10 +11722,10 @@
         <v>34</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>34</v>
@@ -11732,10 +11736,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11758,19 +11762,19 @@
         <v>34</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>34</v>
@@ -11798,10 +11802,10 @@
         <v>71</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>34</v>
@@ -11819,7 +11823,7 @@
         <v>34</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>35</v>
@@ -11828,7 +11832,7 @@
         <v>47</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>59</v>
@@ -11837,10 +11841,10 @@
         <v>34</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>34</v>
@@ -11851,10 +11855,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11880,13 +11884,13 @@
         <v>37</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11936,7 +11940,7 @@
         <v>34</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>35</v>
@@ -11945,7 +11949,7 @@
         <v>36</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>59</v>
@@ -11954,10 +11958,10 @@
         <v>34</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>34</v>

--- a/StructureDefinition-ReportOfIllTraveler.xlsx
+++ b/StructureDefinition-ReportOfIllTraveler.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-05T13:08:56-05:00</t>
+    <t>2023-12-05T18:52:01-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
